--- a/data/output/FV2504_FV2410/ORDERS/17007.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17007.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="158">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="158">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -576,6 +576,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U58" totalsRowShown="0">
+  <autoFilter ref="A1:U58"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,7 +895,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3660,5 +3693,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17007.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17007.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3179,52 +3179,52 @@
       <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="2"/>
       <c r="L41" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P41" s="5"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5" t="s">
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V41" s="5"/>
+      <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="5" t="s">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -3881,48 +3881,48 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="2"/>
       <c r="L54" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P54" s="5"/>
+      <c r="P54" s="2"/>
       <c r="Q54" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5" t="s">
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V54" s="5"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -3981,48 +3981,48 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="2"/>
       <c r="L56" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5" t="s">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P56" s="5"/>
+      <c r="P56" s="2"/>
       <c r="Q56" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
